--- a/INTRINSIC ANALYSIS/Impact of Normalization.xlsx
+++ b/INTRINSIC ANALYSIS/Impact of Normalization.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/INTRINSIC ANALYSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A957FB60-6537-E740-A989-65BBA107A61A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A957FB60-6537-E740-A989-65BBA107A61A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F95CB530-7424-D541-874F-4254B6EBD4EA}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="4780" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8390DCFF-1308-2E48-914E-C08F9B5A4C99}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16060" xr2:uid="{8390DCFF-1308-2E48-914E-C08F9B5A4C99}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rank" sheetId="2" r:id="rId1"/>
-    <sheet name="EXAM" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rank" sheetId="2" r:id="rId2"/>
+    <sheet name="EXAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -364,7 +364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1190506976"/>
@@ -446,7 +446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -478,7 +478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185029104"/>
@@ -520,7 +520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -557,7 +557,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -792,7 +792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185310176"/>
@@ -874,7 +874,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -906,7 +906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1190464752"/>
@@ -948,7 +948,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -985,7 +985,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2081,7 +2081,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C187416-2343-A44C-9027-61E8A387785F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2092,7 +2092,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8E84218B-5800-FF4E-90B6-C35EF16A612C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2103,7 +2103,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
+    <xdr:ext cx="9309835" cy="6066612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2136,7 +2136,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
+    <xdr:ext cx="9309835" cy="6066612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2464,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BC54B-FB93-F647-ACA9-2AF93F8E3BE3}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" activeCellId="2" sqref="A1:A6 D1:D6 F1:F6"/>
     </sheetView>
   </sheetViews>
